--- a/memoryview_vs_bytes_slicing.xlsx
+++ b/memoryview_vs_bytes_slicing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SOFTORS\python_benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29302E52-419A-45CA-9FD1-95BBA8F4D3C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB47D035-7793-4BE9-97C7-63B10DF46469}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F1B15C9-EF02-4205-9614-411D3D4BC023}"/>
   </bookViews>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>memoryview_class_with_indexes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">memoryview_func              </t>
   </si>
   <si>
     <t xml:space="preserve">bytes_func                   </t>
@@ -80,13 +77,16 @@
   <si>
     <t>2.5MB</t>
   </si>
+  <si>
+    <t>memoryview_func</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -252,46 +252,46 @@
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,7 +642,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>memoryview_func              </c:v>
+                  <c:v>memoryview_func</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -891,7 +891,7 @@
         <c:axId val="395586992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="10000000"/>
+          <c:max val="60000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1009,7 +1009,7 @@
         <c:axId val="395609872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="10"/>
+          <c:max val="17"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1550,7 +1550,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>memoryview_func              </c:v>
+                  <c:v>memoryview_func</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3247,8 +3247,8 @@
       <xdr:rowOff>24297</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>567824</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>68035</xdr:rowOff>
     </xdr:to>
@@ -3615,8 +3615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313728D9-D209-4B6F-B725-ED763541E3E7}">
   <dimension ref="A2:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AB26" sqref="AB26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z56" sqref="Z56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3634,200 +3634,200 @@
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="F3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="I3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="10" t="s">
+      <c r="J3" s="4" t="s">
         <v>5</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="21">
+      <c r="A4" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="16">
         <v>6000</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="16">
         <v>60000</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="16">
         <v>400000</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="16">
         <v>600000</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="13">
         <v>1000000</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="13">
         <v>2000000</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="13">
         <v>2500000</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="16">
         <v>6000000</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="1">
         <v>60000000</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="17">
         <v>1.5120000000000001E-3</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="18">
         <v>1.4540000000000001E-2</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="18">
         <v>0.1007</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="18">
         <v>0.14829999999999999</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="24">
         <v>0.2578299</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="24">
         <v>0.50687519999999997</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="24">
         <v>0.63458630000000005</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="18">
         <v>1.5109999999999999</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="19">
         <v>15.29</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="20">
         <v>1.573E-3</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="9">
         <v>1.528E-2</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="9">
         <v>0.10589999999999999</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="9">
         <v>0.15340000000000001</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="3">
         <v>0.2662487</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="3">
         <v>0.52931790000000001</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="3">
         <v>0.66981849999999998</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="9">
         <v>1.627</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="10">
         <v>15.95</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="26">
+      <c r="A7" s="26"/>
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="21">
         <v>1.64E-3</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="7">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="7">
         <v>0.1132</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="7">
         <v>0.1603</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="25">
         <v>0.267683</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="25">
         <v>0.55450540000000004</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="25">
         <v>0.688087</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="7">
         <v>1.64</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="8">
         <v>16.649999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="27">
+      <c r="A8" s="27"/>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="22">
         <v>1.977E-3</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="11">
         <v>5.1630000000000002E-2</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="11">
         <v>1.7688999999999999</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="11">
         <v>5.5</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="23">
         <v>10.3307538</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="23">
         <v>266.25986399999999</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="23">
         <v>451.87136980000002</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
